--- a/seamonitor/backend/register/user.xlsx
+++ b/seamonitor/backend/register/user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\软件工程\大作业\seamonitor\backend\register\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\软件工程\Lab5项目管理\git提交\seamonitor\backend\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BF9E3C-AA70-4D10-8B5B-7A088EC2E963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16A2176-3764-4CFA-895C-0F2207C8801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Username</t>
   </si>
@@ -164,6 +164,14 @@
   </si>
   <si>
     <t>643755037@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa@example.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,18 +557,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="17.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -585,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -596,7 +604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -607,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -618,7 +626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -629,7 +637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -640,7 +648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -651,7 +659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -662,7 +670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -673,7 +681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -684,7 +692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -695,7 +703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -706,7 +714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -717,7 +725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -728,15 +736,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>

--- a/seamonitor/backend/register/user.xlsx
+++ b/seamonitor/backend/register/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\软件工程\Lab5项目管理\git提交\seamonitor\backend\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16A2176-3764-4CFA-895C-0F2207C8801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DE8722-C6C8-4769-8A06-CD1AA5B57311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -560,7 +559,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -751,11 +750,11 @@
       <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17">
-        <v>123456</v>
+        <v>12345</v>
       </c>
     </row>
   </sheetData>

--- a/seamonitor/backend/register/user.xlsx
+++ b/seamonitor/backend/register/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\软件工程\Lab5项目管理\git提交\seamonitor\backend\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16A2176-3764-4CFA-895C-0F2207C8801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D557F3BF-7181-483A-852F-44B0ED549247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -560,7 +559,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -751,11 +750,11 @@
       <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17">
-        <v>123456</v>
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
